--- a/app-common/snack/controls.xlsx
+++ b/app-common/snack/controls.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
